--- a/static/excel/佣金列表模版.xlsx
+++ b/static/excel/佣金列表模版.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whw/ken/crm/我们的crm资料/prd文档/业绩管理/模版/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pure/Documents/code/pig-ui/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="4660" windowWidth="28800" windowHeight="16760"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,14 @@
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$4:$M$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$7:$M$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -273,8 +275,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -320,7 +322,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -330,38 +332,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -371,7 +351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -387,23 +367,26 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,13 +702,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
@@ -738,150 +721,167 @@
     <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" ht="19">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:15" ht="20" thickBot="1">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O7" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="2" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O8" s="3">
         <v>80</v>
       </c>
     </row>
@@ -905,24 +905,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -941,37 +941,37 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>

--- a/static/excel/佣金列表模版.xlsx
+++ b/static/excel/佣金列表模版.xlsx
@@ -17,9 +17,9 @@
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$7:$M$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$7:$N$7</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>固收</t>
     <rPh sb="0" eb="2">
@@ -110,13 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单时间</t>
-    <rPh sb="0" eb="4">
-      <t>chan p</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>区域总</t>
     <rPh sb="0" eb="3">
       <t>chan p</t>
@@ -173,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张三</t>
     <rPh sb="0" eb="2">
       <t>zhang san</t>
@@ -269,6 +258,24 @@
     <rPh sb="0" eb="1">
       <t>yuan</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份</t>
+    <rPh sb="0" eb="1">
+      <t>yue fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单段</t>
+    <rPh sb="0" eb="1">
+      <t>ding dan duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.01.01-2018.01.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,26 +374,26 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,194 +709,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.83203125" style="4" customWidth="1"/>
-    <col min="8" max="11" width="17.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="22" style="4" customWidth="1"/>
-    <col min="15" max="15" width="23.6640625" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="25.1640625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13.83203125" style="4" customWidth="1"/>
+    <col min="9" max="12" width="17.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22" style="4" customWidth="1"/>
+    <col min="16" max="16" width="23.6640625" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="H7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="J7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>2018.01</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="10" t="s">
+      <c r="K8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/excel/佣金列表模版.xlsx
+++ b/static/excel/佣金列表模版.xlsx
@@ -17,7 +17,7 @@
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$7:$N$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$7:$O$7</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>固收</t>
     <rPh sb="0" eb="2">
@@ -261,13 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>月份</t>
-    <rPh sb="0" eb="1">
-      <t>yue fen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单段</t>
     <rPh sb="0" eb="1">
       <t>ding dan duan</t>
@@ -276,6 +269,20 @@
   </si>
   <si>
     <t>2018.01.01-2018.01.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行号</t>
+    <rPh sb="0" eb="1">
+      <t>hang shu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hao</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,28 +716,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="25.1640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="13.83203125" style="4" customWidth="1"/>
-    <col min="9" max="12" width="17.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22" style="4" customWidth="1"/>
-    <col min="16" max="16" width="23.6640625" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="25.1640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="13.83203125" style="4" customWidth="1"/>
+    <col min="10" max="13" width="17.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="22" style="4" customWidth="1"/>
+    <col min="17" max="17" width="23.6640625" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -747,8 +754,9 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
-    </row>
-    <row r="2" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:17" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
@@ -765,8 +773,9 @@
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" ht="19" x14ac:dyDescent="0.2">
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -783,86 +792,91 @@
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="5"/>
+      <c r="O3" s="10"/>
       <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="5"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
       <c r="P4" s="5"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2018.01</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>2018.01</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
@@ -877,38 +891,41 @@
         <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
